--- a/InterlockingDemo/Datas/3.Switches(道岔文件).xlsx
+++ b/InterlockingDemo/Datas/3.Switches(道岔文件).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -212,55 +212,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>道岔7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信号机D4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道岔12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道岔8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道岔6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道岔2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道岔4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信号机X3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信号机D1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道岔1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道岔3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迎面定位开向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>对向定位开向</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>道岔7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>信号机D4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道岔12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道岔8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道岔6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道岔2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道岔4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>信号机X3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>信号机D1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道岔1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道岔3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>迎面定位开向</t>
+    <t>对向反位开向</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -618,24 +622,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.25" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -646,16 +648,19 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>41</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+        <v>55</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -672,10 +677,10 @@
         <v>32</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -692,10 +697,10 @@
         <v>33</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -709,10 +714,10 @@
         <v>34</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -725,11 +730,11 @@
       <c r="E5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G5" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -743,10 +748,10 @@
         <v>36</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -763,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -783,10 +788,10 @@
         <v>37</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -803,10 +808,10 @@
         <v>38</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -823,10 +828,10 @@
         <v>42</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -840,10 +845,10 @@
         <v>39</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -857,7 +862,7 @@
         <v>40</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
